--- a/_files/student_grades_g4.xlsx
+++ b/_files/student_grades_g4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\Planeación mayo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="75">
   <si>
     <t>firstName</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>Valery en el punto de redondeo a las centenas y a las unidades de mil más cercanas comestiste algunos errores ya que redondeaste la cifra del cuadrito y no la cifra que estaba al lado izquierdo.</t>
+  </si>
+  <si>
+    <t>&lt;span&gt;Guía #5 - &lt;/span&gt;   Comparación de fracciones</t>
+  </si>
+  <si>
+    <t>María está excelente tu tarea, ¡Felicitaciones!</t>
   </si>
 </sst>
 </file>
@@ -304,7 +310,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,6 +365,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -387,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -454,6 +466,12 @@
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,11 +794,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O14" sqref="O14"/>
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,9 +808,11 @@
     <col min="3" max="3" width="27.140625" customWidth="1"/>
     <col min="4" max="14" width="12.7109375" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -838,14 +858,20 @@
       <c r="O1" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="P1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="17">
         <f ca="1">TODAY()</f>
-        <v>43959</v>
+        <v>43967</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>49</v>
@@ -886,8 +912,14 @@
       <c r="O2" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="P2" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -933,8 +965,14 @@
       <c r="O3" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="P3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -980,8 +1018,14 @@
       <c r="O4" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="P4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1027,8 +1071,14 @@
       <c r="O5" s="5" t="s">
         <v>62</v>
       </c>
+      <c r="P5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,8 +1124,14 @@
       <c r="O6" s="5" t="s">
         <v>60</v>
       </c>
+      <c r="P6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1121,8 +1177,14 @@
       <c r="O7" s="5" t="s">
         <v>60</v>
       </c>
+      <c r="P7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1168,8 +1230,14 @@
       <c r="O8" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="P8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1205,8 +1273,12 @@
         <v>3</v>
       </c>
       <c r="O9" s="5"/>
+      <c r="P9" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:15" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1252,8 +1324,14 @@
       <c r="O10" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="P10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1299,8 +1377,14 @@
       <c r="O11" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="P11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1346,8 +1430,14 @@
       <c r="O12" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="P12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
@@ -1393,8 +1483,14 @@
       <c r="O13" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="P13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
@@ -1439,6 +1535,12 @@
       </c>
       <c r="O14" s="5" t="s">
         <v>64</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/_files/student_grades_g4.xlsx
+++ b/_files/student_grades_g4.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="86">
   <si>
     <t>firstName</t>
   </si>
@@ -257,6 +257,39 @@
   </si>
   <si>
     <t>María está excelente tu tarea, ¡Felicitaciones!</t>
+  </si>
+  <si>
+    <t>&lt;span&gt;Guía #6 - &lt;/span&gt;   Suma y resta de fracciones homogéneas</t>
+  </si>
+  <si>
+    <t>&lt;span&gt;Guía #7 - &lt;/span&gt;   Taller de fin de periodo 2</t>
+  </si>
+  <si>
+    <t>¡Isa, excelente trabajo!</t>
+  </si>
+  <si>
+    <t>¡Samu, excelente trabajo!</t>
+  </si>
+  <si>
+    <t>¡Juan, excelente trabajo!</t>
+  </si>
+  <si>
+    <t>¡Nico, excelente trabajo!</t>
+  </si>
+  <si>
+    <t>¡Vale, excelente trabajo!</t>
+  </si>
+  <si>
+    <t>¡José, excelente trabajo!</t>
+  </si>
+  <si>
+    <t>¡Sebs, excelente trabajo!</t>
+  </si>
+  <si>
+    <t>¡Simonet, excelente trabajo!</t>
+  </si>
+  <si>
+    <t>¡Maxi, excelente trabajo!</t>
   </si>
 </sst>
 </file>
@@ -310,7 +343,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +404,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -399,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -470,6 +515,24 @@
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -794,11 +857,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q14" sqref="Q14"/>
+      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,9 +873,13 @@
     <col min="15" max="15" width="13.28515625" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" customWidth="1"/>
     <col min="17" max="17" width="13.28515625" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -864,14 +931,26 @@
       <c r="Q1" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="R1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="17">
         <f ca="1">TODAY()</f>
-        <v>43967</v>
+        <v>43975</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>49</v>
@@ -918,8 +997,20 @@
       <c r="Q2" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="R2" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -971,8 +1062,12 @@
       <c r="Q3" s="5" t="s">
         <v>74</v>
       </c>
+      <c r="R3" s="28"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:17" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1024,8 +1119,20 @@
       <c r="Q4" s="5" t="s">
         <v>62</v>
       </c>
+      <c r="R4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1077,8 +1184,16 @@
       <c r="Q5" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="R5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="T5" s="29"/>
+      <c r="U5" s="5"/>
     </row>
-    <row r="6" spans="1:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1130,8 +1245,16 @@
       <c r="Q6" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="R6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T6" s="29"/>
+      <c r="U6" s="5"/>
     </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1183,8 +1306,16 @@
       <c r="Q7" s="5" t="s">
         <v>62</v>
       </c>
+      <c r="R7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="T7" s="29"/>
+      <c r="U7" s="5"/>
     </row>
-    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1236,8 +1367,20 @@
       <c r="Q8" s="5" t="s">
         <v>60</v>
       </c>
+      <c r="R8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1277,8 +1420,12 @@
         <v>3</v>
       </c>
       <c r="Q9" s="5"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1330,8 +1477,16 @@
       <c r="Q10" s="5" t="s">
         <v>60</v>
       </c>
+      <c r="R10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T10" s="29"/>
+      <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1383,8 +1538,20 @@
       <c r="Q11" s="5" t="s">
         <v>60</v>
       </c>
+      <c r="R11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1436,8 +1603,20 @@
       <c r="Q12" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="R12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
@@ -1489,8 +1668,20 @@
       <c r="Q13" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="R13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
@@ -1542,6 +1733,14 @@
       <c r="Q14" s="5" t="s">
         <v>60</v>
       </c>
+      <c r="R14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T14" s="29"/>
+      <c r="U14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_files/student_grades_g4.xlsx
+++ b/_files/student_grades_g4.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="86">
   <si>
     <t>firstName</t>
   </si>
@@ -861,7 +861,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U8" sqref="U8"/>
+      <selection pane="topRight" activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,7 +950,7 @@
       </c>
       <c r="B2" s="17">
         <f ca="1">TODAY()</f>
-        <v>43975</v>
+        <v>43980</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>49</v>
@@ -1190,8 +1190,12 @@
       <c r="S5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="T5" s="29"/>
-      <c r="U5" s="5"/>
+      <c r="T5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1312,8 +1316,12 @@
       <c r="S7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="5"/>
+      <c r="T7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1483,8 +1491,12 @@
       <c r="S10" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="T10" s="29"/>
-      <c r="U10" s="5"/>
+      <c r="T10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1739,8 +1751,12 @@
       <c r="S14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="T14" s="29"/>
-      <c r="U14" s="5"/>
+      <c r="T14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_files/student_grades_g4.xlsx
+++ b/_files/student_grades_g4.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
   <si>
     <t>firstName</t>
   </si>
@@ -290,6 +290,24 @@
   </si>
   <si>
     <t>¡Maxi, excelente trabajo!</t>
+  </si>
+  <si>
+    <t>&lt;span&gt;Examen - &lt;/span&gt;   fin de periodo 2</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>¡Excelente!</t>
+  </si>
+  <si>
+    <t>Sin entregar</t>
   </si>
 </sst>
 </file>
@@ -444,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -523,17 +541,20 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -857,11 +878,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U1" sqref="U1"/>
+      <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,9 +898,11 @@
     <col min="19" max="19" width="13.28515625" customWidth="1"/>
     <col min="20" max="20" width="12.7109375" customWidth="1"/>
     <col min="21" max="21" width="13.28515625" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -943,14 +966,20 @@
       <c r="U1" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="V1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="17">
         <f ca="1">TODAY()</f>
-        <v>43980</v>
+        <v>43989</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>49</v>
@@ -1009,8 +1038,14 @@
       <c r="U2" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="V2" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1062,12 +1097,22 @@
       <c r="Q3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="R3" s="28"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="29"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="U3" s="5"/>
+      <c r="V3" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1131,8 +1176,14 @@
       <c r="U4" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="V4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1196,8 +1247,14 @@
       <c r="U5" s="5" t="s">
         <v>60</v>
       </c>
+      <c r="V5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1255,10 +1312,20 @@
       <c r="S6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="T6" s="29"/>
-      <c r="U6" s="5"/>
+      <c r="T6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,8 +1389,14 @@
       <c r="U7" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="V7" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1387,8 +1460,14 @@
       <c r="U8" s="5" t="s">
         <v>62</v>
       </c>
+      <c r="V8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1428,12 +1507,14 @@
         <v>3</v>
       </c>
       <c r="Q9" s="5"/>
-      <c r="R9" s="31"/>
+      <c r="R9" s="29"/>
       <c r="S9" s="5"/>
-      <c r="T9" s="30"/>
+      <c r="T9" s="28"/>
       <c r="U9" s="5"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="5"/>
     </row>
-    <row r="10" spans="1:21" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1497,8 +1578,14 @@
       <c r="U10" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="V10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="11" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1562,8 +1649,14 @@
       <c r="U11" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="V11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="12" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1627,8 +1720,14 @@
       <c r="U12" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="V12" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
@@ -1692,8 +1791,14 @@
       <c r="U13" s="5" t="s">
         <v>60</v>
       </c>
+      <c r="V13" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
@@ -1756,6 +1861,12 @@
       </c>
       <c r="U14" s="5" t="s">
         <v>61</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
